--- a/SP_Sklad/TempLate/MatIn.xlsx
+++ b/SP_Sklad/TempLate/MatIn.xlsx
@@ -88,7 +88,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -104,21 +104,6 @@
       <b/>
       <sz val="10"/>
       <color indexed="18"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="18"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="53"/>
       <name val="Times New Roman Cyr"/>
       <family val="1"/>
       <charset val="204"/>
@@ -551,159 +536,141 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1076,7 +1043,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:O102"/>
+  <dimension ref="B1:O17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
@@ -1102,481 +1069,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-    </row>
-    <row r="4" spans="2:15" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="41" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" spans="2:15" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="42" t="e">
+      <c r="D4" s="35" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-    </row>
-    <row r="5" spans="2:15" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="46" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+    </row>
+    <row r="5" spans="2:15" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48" t="e">
+      <c r="C5" s="40"/>
+      <c r="D5" s="41" t="e">
         <f>XLRPARAMS_GRP</f>
         <v>#NAME?</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-    </row>
-    <row r="6" spans="2:15" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="41" t="s">
+      <c r="E5" s="41"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+    </row>
+    <row r="6" spans="2:15" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="42" t="e">
+      <c r="D6" s="35" t="e">
         <f>XLRPARAMS_WH</f>
         <v>#NAME?</v>
       </c>
-      <c r="E6" s="42"/>
-    </row>
-    <row r="7" spans="2:15" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" spans="2:15" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="42" t="e">
+      <c r="C7" s="37"/>
+      <c r="D7" s="35" t="e">
         <f>XLRPARAMS_KAID</f>
         <v>#NAME?</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58" t="s">
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="61" t="s">
+      <c r="I9" s="48"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="62"/>
-      <c r="M9" s="58"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="50"/>
     </row>
     <row r="10" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="32" t="s">
+      <c r="F10" s="52"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="30" t="s">
+      <c r="M10" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="36"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="63" t="e">
+      <c r="B12" s="55" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="65"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="57"/>
     </row>
     <row r="13" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="37" t="e">
+      <c r="B13" s="30" t="e">
         <f>MatInDet_TypeName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C13" s="49" t="e">
+      <c r="C13" s="42" t="e">
         <f>MatInDet_DOCNUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="D13" s="51" t="e">
+      <c r="D13" s="44" t="e">
         <f>MatInDet_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="66" t="e">
+      <c r="E13" s="58" t="e">
         <f>MatInDet_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="50" t="e">
+      <c r="F13" s="59"/>
+      <c r="G13" s="43" t="e">
         <f>MatInDet_SHORTNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="H13" s="31" t="e">
+      <c r="H13" s="24" t="e">
         <f>MatInDet_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="I13" s="34" t="e">
+      <c r="I13" s="27" t="e">
         <f>MatInDet_SummPrice</f>
         <v>#NAME?</v>
       </c>
-      <c r="J13" s="35" t="e">
+      <c r="J13" s="28" t="e">
         <f>IF(H13&gt;0,I13/H13," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="K13" s="31" t="e">
+      <c r="K13" s="24" t="e">
         <f>MatInDet_ReturnAmountOut</f>
         <v>#NAME?</v>
       </c>
-      <c r="L13" s="34" t="e">
+      <c r="L13" s="27" t="e">
         <f>MatInDet_ReturnSummPriceOut</f>
         <v>#NAME?</v>
       </c>
-      <c r="M13" s="38" t="e">
+      <c r="M13" s="31" t="e">
         <f>IF(K13&gt;0,L13/K13," ")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26" t="s">
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="27"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="13"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="14"/>
-    </row>
-    <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="20" t="s">
+      <c r="B16" s="7"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="52" t="e">
+      <c r="D17" s="13"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="45" t="e">
         <f>SummaryField_SummPrice</f>
         <v>#NAME?</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="52" t="e">
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="45" t="e">
         <f>SummaryField_ReturnSummPriceOut</f>
         <v>#NAME?</v>
       </c>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="M17" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B20:G20"/>
+  <mergeCells count="8">
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="K9:M9"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
